--- a/Figures_Tables/Supp_Table_3_monthly_cases.xlsx
+++ b/Figures_Tables/Supp_Table_3_monthly_cases.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">grupo_etario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periodos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fecha</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">Age group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year-Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cases</t>
   </si>
   <si>
     <t xml:space="preserve">0-2</t>
@@ -147,21 +144,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,9 +174,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,1520 +479,1193 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>43891</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>43922</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>453</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>43952</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1218</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>43983</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1947</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>44013</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>2726</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>44044</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>3098</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>44075</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>3322</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>44105</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
         <v>2235</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>44136</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
         <v>1598</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>44166</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>1898</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>44197</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>1060</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>44228</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
         <v>1328</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>44256</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
         <v>2743</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>44287</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
         <v>4703</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>44317</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
         <v>5050</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>44348</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <v>4004</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>44378</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
         <v>2449</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>44409</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" t="n">
         <v>1000</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>44440</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
         <v>411</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>44470</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
         <v>401</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>44501</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
         <v>1679</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <v>44531</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
         <v>18671</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <v>44562</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
         <v>5013</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>44593</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
         <v>1249</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>44621</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
         <v>338</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>44652</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
         <v>667</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>44682</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
         <v>926</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>44713</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" t="n">
         <v>1425</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <v>44743</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="n">
         <v>1368</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>44774</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="n">
         <v>305</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>44805</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="n">
         <v>101</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>44835</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="n">
         <v>125</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <v>44866</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="n">
         <v>1315</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>44896</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" t="n">
         <v>830</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <v>44927</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="n">
         <v>58</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <v>44958</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="n">
         <v>23</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <v>43891</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="n">
         <v>98</v>
       </c>
-      <c r="D39" s="1" t="n">
-        <v>43922</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="n">
         <v>704</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <v>43952</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
         <v>2372</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>43983</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="n">
         <v>4927</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>44013</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="n">
         <v>7299</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <v>44044</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
         <v>9511</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <v>44075</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
         <v>12629</v>
       </c>
-      <c r="D45" s="1" t="n">
-        <v>44105</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
         <v>9612</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>44136</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
         <v>8712</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>44166</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
         <v>13783</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <v>44197</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
         <v>8887</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <v>44228</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
         <v>13959</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <v>44256</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
         <v>32878</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>44287</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
         <v>40373</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <v>44317</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" t="n">
         <v>36865</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <v>44348</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
         <v>29740</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>44378</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" t="n">
         <v>21673</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>44409</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" t="n">
         <v>6737</v>
       </c>
-      <c r="D56" s="1" t="n">
-        <v>44440</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
         <v>4084</v>
       </c>
-      <c r="D57" s="1" t="n">
-        <v>44470</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" t="n">
         <v>2813</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <v>44501</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C59" t="n">
         <v>17538</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <v>44531</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" t="n">
         <v>93853</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>44562</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" t="n">
         <v>18165</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>44593</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
         <v>7718</v>
       </c>
-      <c r="D62" s="1" t="n">
-        <v>44621</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C63" t="n">
         <v>1773</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <v>44652</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>5720</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <v>44682</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" t="n">
         <v>4099</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <v>44713</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" t="n">
         <v>3725</v>
       </c>
-      <c r="D66" s="1" t="n">
-        <v>44743</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" t="n">
         <v>3690</v>
       </c>
-      <c r="D67" s="1" t="n">
-        <v>44774</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C68" t="n">
         <v>734</v>
       </c>
-      <c r="D68" s="1" t="n">
-        <v>44805</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C69" t="n">
         <v>270</v>
       </c>
-      <c r="D69" s="1" t="n">
-        <v>44835</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" t="n">
         <v>220</v>
       </c>
-      <c r="D70" s="1" t="n">
-        <v>44866</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C71" t="n">
         <v>2533</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <v>44896</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C72" t="n">
         <v>1098</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <v>44927</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C73" t="n">
         <v>58</v>
       </c>
-      <c r="D73" s="1" t="n">
-        <v>44958</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" t="n">
         <v>22</v>
       </c>
-      <c r="D74" s="1" t="n">
-        <v>43891</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
         <v>122</v>
       </c>
-      <c r="D75" s="1" t="n">
-        <v>43922</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="n">
         <v>952</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <v>43952</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
         <v>2751</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <v>43983</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
         <v>4392</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <v>44013</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
         <v>5887</v>
       </c>
-      <c r="D79" s="1" t="n">
-        <v>44044</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" t="n">
         <v>6968</v>
       </c>
-      <c r="D80" s="1" t="n">
-        <v>44075</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="n">
         <v>7597</v>
       </c>
-      <c r="D81" s="1" t="n">
-        <v>44105</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C82" t="n">
         <v>5924</v>
       </c>
-      <c r="D82" s="1" t="n">
-        <v>44136</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" t="n">
         <v>4455</v>
       </c>
-      <c r="D83" s="1" t="n">
-        <v>44166</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C84" t="n">
         <v>5495</v>
       </c>
-      <c r="D84" s="1" t="n">
-        <v>44197</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" t="n">
         <v>3160</v>
       </c>
-      <c r="D85" s="1" t="n">
-        <v>44228</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C86" t="n">
         <v>5644</v>
       </c>
-      <c r="D86" s="1" t="n">
-        <v>44256</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" t="n">
         <v>13388</v>
       </c>
-      <c r="D87" s="1" t="n">
-        <v>44287</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88" t="n">
         <v>21980</v>
       </c>
-      <c r="D88" s="1" t="n">
-        <v>44317</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" t="n">
         <v>21828</v>
       </c>
-      <c r="D89" s="1" t="n">
-        <v>44348</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" t="n">
         <v>16239</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>44378</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C91" t="n">
         <v>11558</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <v>44409</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" t="n">
         <v>4307</v>
       </c>
-      <c r="D92" s="1" t="n">
-        <v>44440</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" t="n">
         <v>2435</v>
       </c>
-      <c r="D93" s="1" t="n">
-        <v>44470</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C94" t="n">
         <v>2997</v>
       </c>
-      <c r="D94" s="1" t="n">
-        <v>44501</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95" t="n">
         <v>9113</v>
       </c>
-      <c r="D95" s="1" t="n">
-        <v>44531</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C96" t="n">
         <v>77093</v>
       </c>
-      <c r="D96" s="1" t="n">
-        <v>44562</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C97" t="n">
         <v>18394</v>
       </c>
-      <c r="D97" s="1" t="n">
-        <v>44593</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C98" t="n">
         <v>6711</v>
       </c>
-      <c r="D98" s="1" t="n">
-        <v>44621</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C99" t="n">
         <v>1880</v>
       </c>
-      <c r="D99" s="1" t="n">
-        <v>44652</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="n">
         <v>5016</v>
       </c>
-      <c r="D100" s="1" t="n">
-        <v>44682</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101" t="n">
         <v>3243</v>
       </c>
-      <c r="D101" s="1" t="n">
-        <v>44713</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C102" t="n">
         <v>2751</v>
       </c>
-      <c r="D102" s="1" t="n">
-        <v>44743</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C103" t="n">
         <v>2707</v>
       </c>
-      <c r="D103" s="1" t="n">
-        <v>44774</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C104" t="n">
         <v>464</v>
       </c>
-      <c r="D104" s="1" t="n">
-        <v>44805</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C105" t="n">
         <v>190</v>
       </c>
-      <c r="D105" s="1" t="n">
-        <v>44835</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C106" t="n">
         <v>162</v>
       </c>
-      <c r="D106" s="1" t="n">
-        <v>44866</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C107" t="n">
         <v>1406</v>
       </c>
-      <c r="D107" s="1" t="n">
-        <v>44896</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C108" t="n">
         <v>924</v>
       </c>
-      <c r="D108" s="1" t="n">
-        <v>44927</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C109" t="n">
         <v>58</v>
-      </c>
-      <c r="D109" s="1" t="n">
-        <v>44958</v>
       </c>
     </row>
   </sheetData>
